--- a/data/3d_robot_data.xlsx
+++ b/data/3d_robot_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="6"/>
+    <workbookView windowWidth="28000" windowHeight="12220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,58 +117,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,9 +132,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,45 +171,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,9 +192,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,73 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +354,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,37 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,17 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,7 +498,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,166 +567,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10458,108 +10458,108 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C43"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>2.38</v>
+        <v>0.30038</v>
       </c>
       <c r="B1">
-        <v>4.97</v>
+        <v>1.5097</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.30038</v>
+        <v>0.31816</v>
       </c>
       <c r="B2">
-        <v>1.5097</v>
+        <v>1.97089</v>
       </c>
       <c r="C2">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.31816</v>
+        <v>0.35503</v>
       </c>
       <c r="B3">
-        <v>1.97089</v>
+        <v>2.42561</v>
       </c>
       <c r="C3">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.35503</v>
+        <v>0.40328</v>
       </c>
       <c r="B4">
-        <v>2.42561</v>
+        <v>2.90612</v>
       </c>
       <c r="C4">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.40328</v>
+        <v>0.43128</v>
       </c>
       <c r="B5">
-        <v>2.90612</v>
+        <v>3.38139</v>
       </c>
       <c r="C5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.43128</v>
+        <v>0.44882</v>
       </c>
       <c r="B6">
-        <v>3.38139</v>
+        <v>3.84743</v>
       </c>
       <c r="C6">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.44882</v>
+        <v>0.46444</v>
       </c>
       <c r="B7">
-        <v>3.84743</v>
+        <v>4.322418</v>
       </c>
       <c r="C7">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.46444</v>
+        <v>0.94796</v>
       </c>
       <c r="B8">
-        <v>4.322418</v>
+        <v>4.353006</v>
       </c>
       <c r="C8">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.94796</v>
+        <v>1.417661</v>
       </c>
       <c r="B9">
-        <v>4.353006</v>
+        <v>4.361396</v>
       </c>
       <c r="C9">
         <v>1.18</v>
@@ -10567,375 +10567,364 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.417661</v>
+        <v>1.18924</v>
       </c>
       <c r="B10">
-        <v>4.361396</v>
+        <v>4.233742</v>
       </c>
       <c r="C10">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.18924</v>
+        <v>0.94466</v>
       </c>
       <c r="B11">
-        <v>4.233742</v>
+        <v>4.22039</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.94466</v>
+        <v>1.43234</v>
       </c>
       <c r="B12">
-        <v>4.22039</v>
+        <v>4.24067</v>
       </c>
       <c r="C12">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.43234</v>
+        <v>1.19608</v>
       </c>
       <c r="B13">
-        <v>4.24067</v>
+        <v>4.375373</v>
       </c>
       <c r="C13">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.19608</v>
+        <v>1.63519</v>
       </c>
       <c r="B14">
-        <v>4.375373</v>
+        <v>4.171853</v>
       </c>
       <c r="C14">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.63519</v>
+        <v>1.747056</v>
       </c>
       <c r="B15">
-        <v>4.171853</v>
+        <v>4.072315</v>
       </c>
       <c r="C15">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.747056</v>
+        <v>1.773849</v>
       </c>
       <c r="B16">
-        <v>4.072315</v>
+        <v>4.611501</v>
       </c>
       <c r="C16">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.773849</v>
+        <v>1.526799</v>
       </c>
       <c r="B17">
-        <v>4.611501</v>
+        <v>4.48976</v>
       </c>
       <c r="C17">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.526799</v>
+        <v>1.30862</v>
       </c>
       <c r="B18">
-        <v>4.48976</v>
+        <v>4.3879</v>
       </c>
       <c r="C18">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.30862</v>
+        <v>1.742357</v>
       </c>
       <c r="B19">
-        <v>4.3879</v>
+        <v>4.62457</v>
       </c>
       <c r="C19">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.742357</v>
+        <v>1.501653</v>
       </c>
       <c r="B20">
-        <v>4.62457</v>
+        <v>4.755724</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.501653</v>
+        <v>1.519779</v>
       </c>
       <c r="B21">
-        <v>4.755724</v>
+        <v>5.259702</v>
       </c>
       <c r="C21">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.519779</v>
+        <v>1.528504</v>
       </c>
       <c r="B22">
-        <v>5.259702</v>
+        <v>5.744449</v>
       </c>
       <c r="C22">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.528504</v>
+        <v>1.553111</v>
       </c>
       <c r="B23">
-        <v>5.744449</v>
+        <v>6.20466</v>
       </c>
       <c r="C23">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.553111</v>
+        <v>1.578859</v>
       </c>
       <c r="B24">
-        <v>6.20466</v>
+        <v>6.681</v>
       </c>
       <c r="C24">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.578859</v>
+        <v>1.587235</v>
       </c>
       <c r="B25">
-        <v>6.681</v>
+        <v>7.14716</v>
       </c>
       <c r="C25">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.587235</v>
+        <v>1.944258</v>
       </c>
       <c r="B26">
-        <v>7.14716</v>
+        <v>6.78782</v>
       </c>
       <c r="C26">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.944258</v>
+        <v>1.917499</v>
       </c>
       <c r="B27">
-        <v>6.78782</v>
+        <v>7.18603</v>
       </c>
       <c r="C27">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.917499</v>
+        <v>2.190962</v>
       </c>
       <c r="B28">
-        <v>7.18603</v>
+        <v>6.77777</v>
       </c>
       <c r="C28">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2.190962</v>
+        <v>2.490536</v>
       </c>
       <c r="B29">
-        <v>6.77777</v>
+        <v>6.40391</v>
       </c>
       <c r="C29">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2.490536</v>
+        <v>2.727049</v>
       </c>
       <c r="B30">
-        <v>6.40391</v>
+        <v>5.98048</v>
       </c>
       <c r="C30">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2.727049</v>
+        <v>2.772586</v>
       </c>
       <c r="B31">
-        <v>5.98048</v>
+        <v>6.45767</v>
       </c>
       <c r="C31">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.772586</v>
+        <v>2.787061</v>
       </c>
       <c r="B32">
-        <v>6.45767</v>
+        <v>6.92814</v>
       </c>
       <c r="C32">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2.787061</v>
+        <v>2.79134</v>
       </c>
       <c r="B33">
-        <v>6.92814</v>
+        <v>7.40126</v>
       </c>
       <c r="C33">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2.79134</v>
+        <v>2.855475</v>
       </c>
       <c r="B34">
-        <v>7.40126</v>
+        <v>6.91178</v>
       </c>
       <c r="C34">
-        <v>1.02</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2.855475</v>
+        <v>2.889223</v>
       </c>
       <c r="B35">
-        <v>6.91178</v>
+        <v>6.41605</v>
       </c>
       <c r="C35">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2.889223</v>
+        <v>2.913112</v>
       </c>
       <c r="B36">
-        <v>6.41605</v>
+        <v>5.956644</v>
       </c>
       <c r="C36">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2.913112</v>
+        <v>2.4341442</v>
       </c>
       <c r="B37">
-        <v>5.956644</v>
+        <v>5.922921</v>
       </c>
       <c r="C37">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2.4341442</v>
+        <v>2.566418</v>
       </c>
       <c r="B38">
-        <v>5.922921</v>
+        <v>6.41085</v>
       </c>
       <c r="C38">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2.566418</v>
+        <v>3.012964</v>
       </c>
       <c r="B39">
-        <v>6.41085</v>
+        <v>6.54288</v>
       </c>
       <c r="C39">
-        <v>0.94</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3.012964</v>
+        <v>2.950769</v>
       </c>
       <c r="B40">
-        <v>6.54288</v>
+        <v>6.26953</v>
       </c>
       <c r="C40">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2.950769</v>
+        <v>2.885043</v>
       </c>
       <c r="B41">
-        <v>6.26953</v>
+        <v>6.05673</v>
       </c>
       <c r="C41">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2.885043</v>
+        <v>3.02208</v>
       </c>
       <c r="B42">
-        <v>6.05673</v>
+        <v>6.51112</v>
       </c>
       <c r="C42">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>3.02208</v>
-      </c>
-      <c r="B43">
-        <v>6.51112</v>
-      </c>
-      <c r="C43">
         <v>1.19</v>
       </c>
     </row>
@@ -10948,97 +10937,97 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C43"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>2.38</v>
+        <v>0.83012</v>
       </c>
       <c r="B1">
-        <v>4.97</v>
+        <v>1.04303</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.83012</v>
+        <v>1.02048</v>
       </c>
       <c r="B2">
-        <v>1.04303</v>
+        <v>1.47264</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.02048</v>
+        <v>1.23365</v>
       </c>
       <c r="B3">
-        <v>1.47264</v>
+        <v>1.88455</v>
       </c>
       <c r="C3">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.23365</v>
+        <v>1.447715</v>
       </c>
       <c r="B4">
-        <v>1.88455</v>
+        <v>2.35041</v>
       </c>
       <c r="C4">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.447715</v>
+        <v>1.661851</v>
       </c>
       <c r="B5">
-        <v>2.35041</v>
+        <v>2.75336</v>
       </c>
       <c r="C5">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.661851</v>
+        <v>1.857193</v>
       </c>
       <c r="B6">
-        <v>2.75336</v>
+        <v>3.18893</v>
       </c>
       <c r="C6">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.857193</v>
+        <v>2.071905</v>
       </c>
       <c r="B7">
-        <v>3.18893</v>
+        <v>3.59977</v>
       </c>
       <c r="C7">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2.071905</v>
+        <v>2.039039</v>
       </c>
       <c r="B8">
-        <v>3.59977</v>
+        <v>4.057262</v>
       </c>
       <c r="C8">
         <v>1.18</v>
@@ -11046,87 +11035,87 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2.039039</v>
+        <v>1.871455</v>
       </c>
       <c r="B9">
-        <v>4.057262</v>
+        <v>4.420429</v>
       </c>
       <c r="C9">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.871455</v>
+        <v>1.722617</v>
       </c>
       <c r="B10">
-        <v>4.420429</v>
+        <v>4.8771726</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.722617</v>
+        <v>2.107427</v>
       </c>
       <c r="B11">
-        <v>4.8771726</v>
+        <v>5.131328</v>
       </c>
       <c r="C11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2.107427</v>
+        <v>1.825942</v>
       </c>
       <c r="B12">
-        <v>5.131328</v>
+        <v>5.517595</v>
       </c>
       <c r="C12">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.825942</v>
+        <v>1.842271</v>
       </c>
       <c r="B13">
-        <v>5.517595</v>
+        <v>5.0287414</v>
       </c>
       <c r="C13">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.842271</v>
+        <v>1.708959</v>
       </c>
       <c r="B14">
-        <v>5.0287414</v>
+        <v>5.493001</v>
       </c>
       <c r="C14">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.708959</v>
+        <v>1.951418</v>
       </c>
       <c r="B15">
-        <v>5.493001</v>
+        <v>5.075518</v>
       </c>
       <c r="C15">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.951418</v>
+        <v>2.202371</v>
       </c>
       <c r="B16">
-        <v>5.075518</v>
+        <v>4.696216</v>
       </c>
       <c r="C16">
         <v>0.78</v>
@@ -11134,10 +11123,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2.202371</v>
+        <v>2.106014</v>
       </c>
       <c r="B17">
-        <v>4.696216</v>
+        <v>4.338325</v>
       </c>
       <c r="C17">
         <v>0.78</v>
@@ -11145,98 +11134,98 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2.106014</v>
+        <v>2.504284</v>
       </c>
       <c r="B18">
-        <v>4.338325</v>
+        <v>4.000173</v>
       </c>
       <c r="C18">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2.504284</v>
+        <v>2.3891084</v>
       </c>
       <c r="B19">
-        <v>4.000173</v>
+        <v>4.460978</v>
       </c>
       <c r="C19">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2.3891084</v>
+        <v>2.86748</v>
       </c>
       <c r="B20">
-        <v>4.460978</v>
+        <v>4.386083</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2.86748</v>
+        <v>3.114584</v>
       </c>
       <c r="B21">
-        <v>4.386083</v>
+        <v>4.791931</v>
       </c>
       <c r="C21">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>3.114584</v>
+        <v>3.31224</v>
       </c>
       <c r="B22">
-        <v>4.791931</v>
+        <v>5.235959</v>
       </c>
       <c r="C22">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3.31224</v>
+        <v>3.51934</v>
       </c>
       <c r="B23">
-        <v>5.235959</v>
+        <v>5.668305</v>
       </c>
       <c r="C23">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3.51934</v>
+        <v>3.74984</v>
       </c>
       <c r="B24">
-        <v>5.668305</v>
+        <v>6.08191</v>
       </c>
       <c r="C24">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3.74984</v>
+        <v>3.95793</v>
       </c>
       <c r="B25">
-        <v>6.08191</v>
+        <v>6.4853</v>
       </c>
       <c r="C25">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3.95793</v>
+        <v>3.9991</v>
       </c>
       <c r="B26">
-        <v>6.4853</v>
+        <v>5.99751</v>
       </c>
       <c r="C26">
         <v>1.21</v>
@@ -11244,76 +11233,76 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3.9991</v>
+        <v>3.64083</v>
       </c>
       <c r="B27">
-        <v>5.99751</v>
+        <v>6.32168</v>
       </c>
       <c r="C27">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3.64083</v>
+        <v>3.87281</v>
       </c>
       <c r="B28">
-        <v>6.32168</v>
+        <v>5.926343</v>
       </c>
       <c r="C28">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3.87281</v>
+        <v>3.91599</v>
       </c>
       <c r="B29">
-        <v>5.926343</v>
+        <v>5.849353</v>
       </c>
       <c r="C29">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3.91599</v>
+        <v>3.96644</v>
       </c>
       <c r="B30">
-        <v>5.849353</v>
+        <v>5.356664</v>
       </c>
       <c r="C30">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3.96644</v>
+        <v>3.73734</v>
       </c>
       <c r="B31">
-        <v>5.356664</v>
+        <v>5.766014</v>
       </c>
       <c r="C31">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3.73734</v>
+        <v>3.5389</v>
       </c>
       <c r="B32">
-        <v>5.766014</v>
+        <v>6.17471</v>
       </c>
       <c r="C32">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3.5389</v>
+        <v>3.303905</v>
       </c>
       <c r="B33">
-        <v>6.17471</v>
+        <v>6.57207</v>
       </c>
       <c r="C33">
         <v>1.21</v>
@@ -11321,54 +11310,54 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3.303905</v>
+        <v>3.41384</v>
       </c>
       <c r="B34">
-        <v>6.57207</v>
+        <v>6.32459</v>
       </c>
       <c r="C34">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3.41384</v>
+        <v>3.213107</v>
       </c>
       <c r="B35">
-        <v>6.32459</v>
+        <v>6.74161</v>
       </c>
       <c r="C35">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3.213107</v>
+        <v>2.98637</v>
       </c>
       <c r="B36">
-        <v>6.74161</v>
+        <v>7.15452</v>
       </c>
       <c r="C36">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2.98637</v>
+        <v>2.963087</v>
       </c>
       <c r="B37">
-        <v>7.15452</v>
+        <v>7.3949</v>
       </c>
       <c r="C37">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2.963087</v>
+        <v>3.163185</v>
       </c>
       <c r="B38">
-        <v>7.3949</v>
+        <v>6.96487</v>
       </c>
       <c r="C38">
         <v>1.05</v>
@@ -11376,56 +11365,45 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3.163185</v>
+        <v>3.188721</v>
       </c>
       <c r="B39">
-        <v>6.96487</v>
+        <v>7.44262</v>
       </c>
       <c r="C39">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3.188721</v>
+        <v>3.099455</v>
       </c>
       <c r="B40">
-        <v>7.44262</v>
+        <v>6.98321</v>
       </c>
       <c r="C40">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3.099455</v>
+        <v>3.078702</v>
       </c>
       <c r="B41">
-        <v>6.98321</v>
+        <v>7.46948</v>
       </c>
       <c r="C41">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3.078702</v>
+        <v>3.43347</v>
       </c>
       <c r="B42">
-        <v>7.46948</v>
+        <v>7.15522</v>
       </c>
       <c r="C42">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>3.43347</v>
-      </c>
-      <c r="B43">
-        <v>7.15522</v>
-      </c>
-      <c r="C43">
         <v>0.98</v>
       </c>
     </row>
@@ -11438,152 +11416,155 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C43"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.57142857142857"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>2.38</v>
+        <v>1.409285</v>
       </c>
       <c r="B1">
-        <v>4.97</v>
+        <v>0.42263</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.409285</v>
+        <v>1.783162</v>
       </c>
       <c r="B2">
-        <v>0.42263</v>
+        <v>0.69863</v>
       </c>
       <c r="C2">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.783162</v>
+        <v>2.160641</v>
       </c>
       <c r="B3">
-        <v>0.69863</v>
+        <v>0.96422</v>
       </c>
       <c r="C3">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2.160641</v>
+        <v>2.543346</v>
       </c>
       <c r="B4">
-        <v>0.96422</v>
+        <v>1.22933</v>
       </c>
       <c r="C4">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2.543346</v>
+        <v>2.931065</v>
       </c>
       <c r="B5">
-        <v>1.22933</v>
+        <v>1.49531</v>
       </c>
       <c r="C5">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2.931065</v>
+        <v>3.317361</v>
       </c>
       <c r="B6">
-        <v>1.49531</v>
+        <v>1.75742</v>
       </c>
       <c r="C6">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3.317361</v>
+        <v>3.69499</v>
       </c>
       <c r="B7">
-        <v>1.75742</v>
+        <v>2.02019</v>
       </c>
       <c r="C7">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3.69499</v>
+        <v>3.334287</v>
       </c>
       <c r="B8">
-        <v>2.02019</v>
+        <v>2.34704</v>
       </c>
       <c r="C8">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3.334287</v>
+        <v>3.075468</v>
       </c>
       <c r="B9">
-        <v>2.34704</v>
+        <v>2.73348</v>
       </c>
       <c r="C9">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3.075468</v>
+        <v>2.842119</v>
       </c>
       <c r="B10">
-        <v>2.73348</v>
+        <v>3.15704</v>
       </c>
       <c r="C10">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2.842119</v>
+        <v>2.4692639</v>
       </c>
       <c r="B11">
-        <v>3.15704</v>
+        <v>3.47525</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2.4692639</v>
+        <v>2.038765</v>
       </c>
       <c r="B12">
-        <v>3.47525</v>
+        <v>3.6846</v>
       </c>
       <c r="C12">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2.038765</v>
+        <v>2.060139</v>
       </c>
       <c r="B13">
-        <v>3.6846</v>
+        <v>3.18309</v>
       </c>
       <c r="C13">
         <v>0.79</v>
@@ -11591,43 +11572,43 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2.060139</v>
+        <v>2.139485</v>
       </c>
       <c r="B14">
-        <v>3.18309</v>
+        <v>3.68206</v>
       </c>
       <c r="C14">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2.139485</v>
+        <v>1.682025</v>
       </c>
       <c r="B15">
-        <v>3.68206</v>
+        <v>3.67258</v>
       </c>
       <c r="C15">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.682025</v>
+        <v>1.637207</v>
       </c>
       <c r="B16">
-        <v>3.67258</v>
+        <v>3.41751</v>
       </c>
       <c r="C16">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.637207</v>
+        <v>1.922813</v>
       </c>
       <c r="B17">
-        <v>3.41751</v>
+        <v>3.0359</v>
       </c>
       <c r="C17">
         <v>0.63</v>
@@ -11635,65 +11616,65 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.922813</v>
+        <v>1.963258</v>
       </c>
       <c r="B18">
-        <v>3.0359</v>
+        <v>3.41866</v>
       </c>
       <c r="C18">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.963258</v>
+        <v>1.860577</v>
       </c>
       <c r="B19">
-        <v>3.41866</v>
+        <v>2.94626</v>
       </c>
       <c r="C19">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.860577</v>
+        <v>2.01889</v>
       </c>
       <c r="B20">
-        <v>2.94626</v>
+        <v>2.49503</v>
       </c>
       <c r="C20">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2.01889</v>
+        <v>2.4184376</v>
       </c>
       <c r="B21">
-        <v>2.49503</v>
+        <v>2.73949</v>
       </c>
       <c r="C21">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2.4184376</v>
+        <v>2.799538</v>
       </c>
       <c r="B22">
-        <v>2.73949</v>
+        <v>3.00422</v>
       </c>
       <c r="C22">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2.799538</v>
+        <v>3.193065</v>
       </c>
       <c r="B23">
-        <v>3.00422</v>
+        <v>3.31236</v>
       </c>
       <c r="C23">
         <v>0.64</v>
@@ -11701,32 +11682,32 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3.193065</v>
+        <v>3.57612</v>
       </c>
       <c r="B24">
-        <v>3.31236</v>
+        <v>3.58704</v>
       </c>
       <c r="C24">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3.57612</v>
+        <v>4.0152</v>
       </c>
       <c r="B25">
-        <v>3.58704</v>
+        <v>3.83048</v>
       </c>
       <c r="C25">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4.0152</v>
+        <v>3.73001</v>
       </c>
       <c r="B26">
-        <v>3.83048</v>
+        <v>4.02091</v>
       </c>
       <c r="C26">
         <v>0.8</v>
@@ -11734,10 +11715,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3.73001</v>
+        <v>3.49403</v>
       </c>
       <c r="B27">
-        <v>4.02091</v>
+        <v>3.6226</v>
       </c>
       <c r="C27">
         <v>0.8</v>
@@ -11745,10 +11726,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3.49403</v>
+        <v>3.90211</v>
       </c>
       <c r="B28">
-        <v>3.6226</v>
+        <v>3.8874</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -11756,98 +11737,98 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3.90211</v>
+        <v>3.52419</v>
       </c>
       <c r="B29">
-        <v>3.8874</v>
+        <v>4.205923</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3.52419</v>
+        <v>3.60491</v>
       </c>
       <c r="B30">
-        <v>4.205923</v>
+        <v>3.74553</v>
       </c>
       <c r="C30">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3.60491</v>
+        <v>3.99801</v>
       </c>
       <c r="B31">
-        <v>3.74553</v>
+        <v>4.004672</v>
       </c>
       <c r="C31">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3.99801</v>
+        <v>3.56658</v>
       </c>
       <c r="B32">
-        <v>4.004672</v>
+        <v>4.294141</v>
       </c>
       <c r="C32">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3.56658</v>
+        <v>3.167819</v>
       </c>
       <c r="B33">
-        <v>4.294141</v>
+        <v>4.530157</v>
       </c>
       <c r="C33">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3.167819</v>
+        <v>2.774663</v>
       </c>
       <c r="B34">
-        <v>4.530157</v>
+        <v>4.785281</v>
       </c>
       <c r="C34">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2.774663</v>
+        <v>2.3750436</v>
       </c>
       <c r="B35">
-        <v>4.785281</v>
+        <v>5.0454757</v>
       </c>
       <c r="C35">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2.3750436</v>
+        <v>1.984588</v>
       </c>
       <c r="B36">
-        <v>5.0454757</v>
+        <v>5.283718</v>
       </c>
       <c r="C36">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.984588</v>
+        <v>1.905747</v>
       </c>
       <c r="B37">
-        <v>5.283718</v>
+        <v>4.869965</v>
       </c>
       <c r="C37">
         <v>1.25</v>
@@ -11855,67 +11836,56 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.905747</v>
+        <v>2.262693</v>
       </c>
       <c r="B38">
-        <v>4.869965</v>
+        <v>5.191442</v>
       </c>
       <c r="C38">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2.262693</v>
+        <v>2.215197</v>
       </c>
       <c r="B39">
-        <v>5.191442</v>
+        <v>5.685034</v>
       </c>
       <c r="C39">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2.215197</v>
+        <v>2.139389</v>
       </c>
       <c r="B40">
-        <v>5.685034</v>
+        <v>6.14318</v>
       </c>
       <c r="C40">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2.139389</v>
+        <v>2.092435</v>
       </c>
       <c r="B41">
-        <v>6.14318</v>
+        <v>6.62696</v>
       </c>
       <c r="C41">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2.092435</v>
+        <v>2.4211411</v>
       </c>
       <c r="B42">
-        <v>6.62696</v>
+        <v>6.94601</v>
       </c>
       <c r="C42">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>2.4211411</v>
-      </c>
-      <c r="B43">
-        <v>6.94601</v>
-      </c>
-      <c r="C43">
         <v>0.96</v>
       </c>
     </row>
